--- a/src/test/resources/testdata/SupplierLoginValues.xlsx
+++ b/src/test/resources/testdata/SupplierLoginValues.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testOpsJavaFramework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C8F5EC-DE06-46C7-A6BB-B14260A6F702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FC49D1-331A-4297-84A5-A1789888B0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>AdminID</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>SEANTEST PROCTOR</t>
-  </si>
-  <si>
-    <t>UserGroup</t>
-  </si>
-  <si>
-    <t>Admin</t>
   </si>
 </sst>
 </file>
@@ -393,44 +387,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>6</v>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
     </row>

--- a/src/test/resources/testdata/SupplierLoginValues.xlsx
+++ b/src/test/resources/testdata/SupplierLoginValues.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\testOpsJavaFramework\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SPIDR_Test\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FC49D1-331A-4297-84A5-A1789888B0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64BA875-165F-42B0-96B3-632FB9D59C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,14 +390,13 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="3" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
